--- a/Sharpe das Estratégias/s4T.xlsx
+++ b/Sharpe das Estratégias/s4T.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7A72B9-CFE9-4F8D-B9B5-1CE908263297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,371 +638,373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>0.5241822525259676</v>
+        <v>0.52418225252596762</v>
       </c>
       <c r="C2">
         <v>0.3478961110740173</v>
       </c>
       <c r="D2">
-        <v>0.2527654138122383</v>
+        <v>0.25276541381223833</v>
       </c>
       <c r="E2">
-        <v>0.7096793765545694</v>
+        <v>0.70967937655456936</v>
       </c>
       <c r="F2">
         <v>0.1923295020277585</v>
       </c>
       <c r="G2">
-        <v>0.2294996432745129</v>
+        <v>0.22949964327451289</v>
       </c>
       <c r="H2">
-        <v>1.477356027507834</v>
+        <v>1.4773560275078339</v>
       </c>
       <c r="I2">
         <v>1.272407522873926</v>
       </c>
       <c r="J2">
-        <v>0.7969292141246564</v>
+        <v>0.79692921412465645</v>
       </c>
       <c r="K2">
-        <v>0.6788892810139528</v>
+        <v>0.67888928101395285</v>
       </c>
       <c r="L2">
         <v>1.120765833244147</v>
       </c>
       <c r="M2">
-        <v>0.6728061250696636</v>
+        <v>0.67280612506966364</v>
       </c>
       <c r="N2">
         <v>0.6080874417344595</v>
       </c>
       <c r="O2">
-        <v>0.5219162670262026</v>
+        <v>0.52191626702620264</v>
       </c>
       <c r="P2">
-        <v>0.8754430305976028</v>
+        <v>0.87544303059760276</v>
       </c>
       <c r="Q2">
-        <v>0.7212586360037729</v>
+        <v>0.72125863600377293</v>
       </c>
       <c r="R2">
-        <v>0.9208645482094525</v>
+        <v>0.92086454820945252</v>
       </c>
       <c r="S2">
-        <v>0.7639488422539469</v>
+        <v>0.76394884225394688</v>
       </c>
       <c r="T2">
-        <v>1.230075597973718</v>
+        <v>1.2300755979737179</v>
       </c>
       <c r="U2">
         <v>1.208059319849017</v>
       </c>
       <c r="V2">
-        <v>0.9668321049538273</v>
+        <v>0.96683210495382732</v>
       </c>
       <c r="W2">
-        <v>0.5997030143096778</v>
+        <v>0.59970301430967776</v>
       </c>
       <c r="X2">
-        <v>0.4704311733489212</v>
+        <v>0.47043117334892121</v>
       </c>
       <c r="Y2">
-        <v>0.550617306412734</v>
+        <v>0.55061730641273399</v>
       </c>
       <c r="Z2">
-        <v>0.5153850467884908</v>
+        <v>0.51538504678849084</v>
       </c>
       <c r="AA2">
         <v>0.1879033571671303</v>
       </c>
       <c r="AB2">
-        <v>0.7315011687302563</v>
+        <v>0.73150116873025628</v>
       </c>
       <c r="AC2">
-        <v>0.7165335004612682</v>
+        <v>0.71653350046126818</v>
       </c>
       <c r="AD2">
-        <v>0.9141169026911424</v>
+        <v>0.91411690269114243</v>
       </c>
       <c r="AE2">
         <v>0.6343418090118399</v>
       </c>
       <c r="AF2">
-        <v>0.4840419123198988</v>
+        <v>0.48404191231989879</v>
       </c>
       <c r="AG2">
-        <v>1.136471798892628</v>
+        <v>1.1364717988926281</v>
       </c>
       <c r="AH2">
         <v>0.9215291783571613</v>
       </c>
       <c r="AI2">
-        <v>0.6471123430259877</v>
+        <v>0.64711234302598775</v>
       </c>
       <c r="AJ2">
-        <v>0.1644797748115137</v>
+        <v>0.16447977481151371</v>
       </c>
       <c r="AK2">
-        <v>0.6409123763045289</v>
+        <v>0.64091237630452891</v>
       </c>
       <c r="AL2">
         <v>1.159042244471419</v>
       </c>
       <c r="AM2">
-        <v>0.4128426983252622</v>
+        <v>0.41284269832526221</v>
       </c>
       <c r="AN2">
-        <v>1.070822889446344</v>
+        <v>1.0708228894463441</v>
       </c>
       <c r="AO2">
-        <v>0.9636908816377591</v>
+        <v>0.96369088163775907</v>
       </c>
       <c r="AP2">
         <v>1.041122543695836</v>
       </c>
       <c r="AQ2">
-        <v>0.6517295474202194</v>
+        <v>0.65172954742021938</v>
       </c>
       <c r="AR2">
-        <v>0.4962384452654793</v>
+        <v>0.49623844526547928</v>
       </c>
       <c r="AS2">
-        <v>0.8136924311009688</v>
+        <v>0.81369243110096878</v>
       </c>
       <c r="AT2">
         <v>0.8210961057679127</v>
       </c>
       <c r="AU2">
-        <v>0.4616545062286453</v>
+        <v>0.46165450622864529</v>
       </c>
       <c r="AV2">
-        <v>0.5564488292672942</v>
+        <v>0.55644882926729422</v>
       </c>
       <c r="AW2">
-        <v>0.2981284794871261</v>
+        <v>0.29812847948712612</v>
       </c>
       <c r="AX2">
-        <v>1.288737501929852</v>
+        <v>1.2887375019298519</v>
       </c>
       <c r="AY2">
-        <v>0.638615805711971</v>
+        <v>0.63861580571197096</v>
       </c>
       <c r="AZ2">
-        <v>0.8616833158007925</v>
+        <v>0.86168331580079249</v>
       </c>
       <c r="BA2">
-        <v>0.3075128320017044</v>
+        <v>0.30751283200170437</v>
       </c>
       <c r="BB2">
-        <v>0.6405884197626739</v>
+        <v>0.64058841976267389</v>
       </c>
       <c r="BC2">
-        <v>0.3599374589710507</v>
+        <v>0.35993745897105073</v>
       </c>
       <c r="BD2">
-        <v>0.0331807497118905</v>
+        <v>3.31807497118905E-2</v>
       </c>
       <c r="BE2">
-        <v>0.5954691765004522</v>
+        <v>0.59546917650045217</v>
       </c>
       <c r="BF2">
-        <v>0.9401608199948595</v>
+        <v>0.94016081999485945</v>
       </c>
       <c r="BG2">
-        <v>0.7707472671549846</v>
+        <v>0.77074726715498465</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B3">
         <v>1.047137381265475</v>
@@ -738,28 +1013,28 @@
         <v>0.8968067107552089</v>
       </c>
       <c r="D3">
-        <v>0.6692165927495188</v>
+        <v>0.66921659274951883</v>
       </c>
       <c r="E3">
-        <v>0.9911461542488031</v>
+        <v>0.99114615424880315</v>
       </c>
       <c r="F3">
-        <v>0.7132379858247778</v>
+        <v>0.71323798582477782</v>
       </c>
       <c r="G3">
-        <v>0.6714789743490839</v>
+        <v>0.67147897434908388</v>
       </c>
       <c r="H3">
         <v>0.7480512817273095</v>
       </c>
       <c r="I3">
-        <v>0.9900578480189755</v>
+        <v>0.99005784801897545</v>
       </c>
       <c r="J3">
-        <v>0.7183262988596908</v>
+        <v>0.71832629885969079</v>
       </c>
       <c r="K3">
-        <v>0.8382996467142868</v>
+        <v>0.83829964671428681</v>
       </c>
       <c r="L3">
         <v>0.9464658298645372</v>
@@ -768,192 +1043,192 @@
         <v>1.155168322755846</v>
       </c>
       <c r="N3">
-        <v>0.8473014154946765</v>
+        <v>0.84730141549467652</v>
       </c>
       <c r="O3">
-        <v>0.659906962105698</v>
+        <v>0.65990696210569799</v>
       </c>
       <c r="P3">
-        <v>0.7897831001200701</v>
+        <v>0.78978310012007014</v>
       </c>
       <c r="Q3">
-        <v>0.6243731935388314</v>
+        <v>0.62437319353883136</v>
       </c>
       <c r="R3">
-        <v>0.97546061652449</v>
+        <v>0.97546061652449001</v>
       </c>
       <c r="S3">
-        <v>0.7948906954462585</v>
+        <v>0.79489069544625846</v>
       </c>
       <c r="T3">
-        <v>0.918937803677722</v>
+        <v>0.91893780367772204</v>
       </c>
       <c r="U3">
-        <v>0.9379476004479224</v>
+        <v>0.93794760044792236</v>
       </c>
       <c r="V3">
         <v>1.388846292193578</v>
       </c>
       <c r="W3">
-        <v>0.8915634658508672</v>
+        <v>0.89156346585086721</v>
       </c>
       <c r="X3">
         <v>0.8097545155295609</v>
       </c>
       <c r="Y3">
-        <v>0.6788227028835143</v>
+        <v>0.67882270288351432</v>
       </c>
       <c r="Z3">
-        <v>0.5948625460542709</v>
+        <v>0.59486254605427091</v>
       </c>
       <c r="AA3">
-        <v>0.8249662726789511</v>
+        <v>0.82496627267895106</v>
       </c>
       <c r="AB3">
-        <v>1.092448459840777</v>
+        <v>1.0924484598407771</v>
       </c>
       <c r="AC3">
-        <v>1.228315644899615</v>
+        <v>1.2283156448996151</v>
       </c>
       <c r="AD3">
         <v>1.098240570801073</v>
       </c>
       <c r="AE3">
-        <v>1.379670513208067</v>
+        <v>1.3796705132080671</v>
       </c>
       <c r="AF3">
         <v>1.047513198702102</v>
       </c>
       <c r="AG3">
-        <v>1.085983562268937</v>
+        <v>1.0859835622689371</v>
       </c>
       <c r="AH3">
-        <v>1.169199066257011</v>
+        <v>1.1691990662570111</v>
       </c>
       <c r="AI3">
-        <v>0.6939200394021623</v>
+        <v>0.69392003940216229</v>
       </c>
       <c r="AJ3">
-        <v>0.5665090368363924</v>
+        <v>0.56650903683639242</v>
       </c>
       <c r="AK3">
         <v>0.6282631235310836</v>
       </c>
       <c r="AL3">
-        <v>0.8376629755020473</v>
+        <v>0.83766297550204727</v>
       </c>
       <c r="AM3">
-        <v>0.8305264095859458</v>
+        <v>0.83052640958594581</v>
       </c>
       <c r="AN3">
-        <v>0.374818654429911</v>
+        <v>0.37481865442991102</v>
       </c>
       <c r="AO3">
-        <v>0.6940532321676703</v>
+        <v>0.69405323216767034</v>
       </c>
       <c r="AP3">
-        <v>0.7829780511826133</v>
+        <v>0.78297805118261332</v>
       </c>
       <c r="AQ3">
-        <v>0.808402791945373</v>
+        <v>0.80840279194537301</v>
       </c>
       <c r="AR3">
-        <v>1.309515240939099</v>
+        <v>1.3095152409390991</v>
       </c>
       <c r="AS3">
-        <v>0.9983618777541862</v>
+        <v>0.99836187775418617</v>
       </c>
       <c r="AT3">
-        <v>0.7750375312344916</v>
+        <v>0.77503753123449159</v>
       </c>
       <c r="AU3">
         <v>0.8932132732827438</v>
       </c>
       <c r="AV3">
-        <v>0.8995786600769748</v>
+        <v>0.89957866007697485</v>
       </c>
       <c r="AW3">
-        <v>0.7051660470390929</v>
+        <v>0.70516604703909291</v>
       </c>
       <c r="AX3">
         <v>1.451618757779618</v>
       </c>
       <c r="AY3">
-        <v>0.8109983026253366</v>
+        <v>0.81099830262533656</v>
       </c>
       <c r="AZ3">
         <v>1.077524078379529</v>
       </c>
       <c r="BA3">
-        <v>0.7011572618107788</v>
+        <v>0.70115726181077875</v>
       </c>
       <c r="BB3">
-        <v>0.6807172878981841</v>
+        <v>0.68071728789818409</v>
       </c>
       <c r="BC3">
-        <v>0.8845131260658541</v>
+        <v>0.88451312606585408</v>
       </c>
       <c r="BD3">
-        <v>0.7659261652940026</v>
+        <v>0.76592616529400259</v>
       </c>
       <c r="BE3">
-        <v>0.644811951806482</v>
+        <v>0.64481195180648199</v>
       </c>
       <c r="BF3">
-        <v>1.168739683759502</v>
+        <v>1.1687396837595021</v>
       </c>
       <c r="BG3">
-        <v>0.7906402150741618</v>
+        <v>0.79064021507416182</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>0.4642758357454059</v>
+        <v>0.46427583574540587</v>
       </c>
       <c r="C4">
-        <v>0.5500730326586418</v>
+        <v>0.55007303265864183</v>
       </c>
       <c r="D4">
-        <v>0.4870406799906188</v>
+        <v>0.48704067999061879</v>
       </c>
       <c r="E4">
-        <v>1.413761268393043</v>
+        <v>1.4137612683930429</v>
       </c>
       <c r="F4">
-        <v>0.7448716936443666</v>
+        <v>0.74487169364436656</v>
       </c>
       <c r="G4">
-        <v>0.3683545807093327</v>
+        <v>0.36835458070933269</v>
       </c>
       <c r="H4">
-        <v>0.6943954171777018</v>
+        <v>0.69439541717770181</v>
       </c>
       <c r="I4">
         <v>1.013933234319039</v>
       </c>
       <c r="J4">
-        <v>0.6345177008782261</v>
+        <v>0.63451770087822612</v>
       </c>
       <c r="K4">
-        <v>0.2253906335412232</v>
+        <v>0.22539063354122321</v>
       </c>
       <c r="L4">
         <v>1.008419180297802</v>
       </c>
       <c r="M4">
-        <v>0.2866160157340076</v>
+        <v>0.28661601573400758</v>
       </c>
       <c r="N4">
-        <v>0.3754042416017737</v>
+        <v>0.37540424160177371</v>
       </c>
       <c r="O4">
-        <v>0.2103216082231736</v>
+        <v>0.21032160822317361</v>
       </c>
       <c r="P4">
-        <v>0.7875835240665063</v>
+        <v>0.78758352406650634</v>
       </c>
       <c r="Q4">
         <v>1.291228773424395</v>
@@ -962,28 +1237,28 @@
         <v>1.367744836770278</v>
       </c>
       <c r="S4">
-        <v>0.7768803872731107</v>
+        <v>0.77688038727311071</v>
       </c>
       <c r="T4">
-        <v>0.5732421538264766</v>
+        <v>0.57324215382647659</v>
       </c>
       <c r="U4">
-        <v>1.010555558881777</v>
+        <v>1.0105555588817769</v>
       </c>
       <c r="V4">
-        <v>0.6116979001981631</v>
+        <v>0.61169790019816306</v>
       </c>
       <c r="W4">
-        <v>0.4917183080102366</v>
+        <v>0.49171830801023658</v>
       </c>
       <c r="X4">
         <v>0.1564268852453298</v>
       </c>
       <c r="Y4">
-        <v>0.5924556395169585</v>
+        <v>0.59245563951695845</v>
       </c>
       <c r="Z4">
-        <v>0.3176646476836221</v>
+        <v>0.31766464768362213</v>
       </c>
       <c r="AA4">
         <v>0.4163821078705166</v>
@@ -1001,46 +1276,46 @@
         <v>1.059321793871838</v>
       </c>
       <c r="AF4">
-        <v>0.7439701544890079</v>
+        <v>0.74397015448900794</v>
       </c>
       <c r="AG4">
-        <v>0.7908639033377369</v>
+        <v>0.79086390333773693</v>
       </c>
       <c r="AH4">
-        <v>0.6983083285492668</v>
+        <v>0.69830832854926683</v>
       </c>
       <c r="AI4">
         <v>0.5551589508931376</v>
       </c>
       <c r="AJ4">
-        <v>0.4607258325489874</v>
+        <v>0.46072583254898741</v>
       </c>
       <c r="AK4">
-        <v>0.9275200103977329</v>
+        <v>0.92752001039773291</v>
       </c>
       <c r="AL4">
-        <v>0.8740314762707967</v>
+        <v>0.87403147627079669</v>
       </c>
       <c r="AM4">
-        <v>-0.3005388998327986</v>
+        <v>-0.30053889983279858</v>
       </c>
       <c r="AN4">
-        <v>0.6003953423718282</v>
+        <v>0.60039534237182823</v>
       </c>
       <c r="AO4">
-        <v>0.6357332828492956</v>
+        <v>0.63573328284929564</v>
       </c>
       <c r="AP4">
-        <v>0.7272056423678196</v>
+        <v>0.72720564236781959</v>
       </c>
       <c r="AQ4">
         <v>0.8006625435696989</v>
       </c>
       <c r="AR4">
-        <v>0.3750032394315563</v>
+        <v>0.37500323943155628</v>
       </c>
       <c r="AS4">
-        <v>0.5568850898031656</v>
+        <v>0.55688508980316564</v>
       </c>
       <c r="AT4">
         <v>0.1221682825317012</v>
@@ -1049,117 +1324,117 @@
         <v>-0.1865398553772781</v>
       </c>
       <c r="AV4">
-        <v>0.4569360048312444</v>
+        <v>0.45693600483124441</v>
       </c>
       <c r="AW4">
-        <v>0.3766159855055081</v>
+        <v>0.37661598550550812</v>
       </c>
       <c r="AX4">
-        <v>0.3722801645305553</v>
+        <v>0.37228016453055529</v>
       </c>
       <c r="AY4">
-        <v>0.774275119042482</v>
+        <v>0.77427511904248203</v>
       </c>
       <c r="AZ4">
-        <v>0.848585899968653</v>
+        <v>0.84858589996865297</v>
       </c>
       <c r="BA4">
-        <v>0.3360784444743593</v>
+        <v>0.33607844447435931</v>
       </c>
       <c r="BB4">
-        <v>0.7404373271764486</v>
+        <v>0.74043732717644861</v>
       </c>
       <c r="BC4">
-        <v>0.731169074114819</v>
+        <v>0.73116907411481902</v>
       </c>
       <c r="BD4">
-        <v>0.2929523144562898</v>
+        <v>0.29295231445628978</v>
       </c>
       <c r="BE4">
-        <v>0.7556022081595798</v>
+        <v>0.75560220815957979</v>
       </c>
       <c r="BF4">
-        <v>0.5528016482307661</v>
+        <v>0.55280164823076605</v>
       </c>
       <c r="BG4">
-        <v>0.6184405879143434</v>
+        <v>0.61844058791434342</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>0.4638215923423673</v>
+        <v>0.46382159234236731</v>
       </c>
       <c r="C5">
         <v>0.3050988463510203</v>
       </c>
       <c r="D5">
-        <v>0.1439687581988472</v>
+        <v>0.14396875819884719</v>
       </c>
       <c r="E5">
         <v>1.029467807725891</v>
       </c>
       <c r="F5">
-        <v>0.4214677279733255</v>
+        <v>0.42146772797332549</v>
       </c>
       <c r="G5">
-        <v>0.2683634658874762</v>
+        <v>0.26836346588747623</v>
       </c>
       <c r="H5">
-        <v>0.6146941783106376</v>
+        <v>0.61469417831063755</v>
       </c>
       <c r="I5">
-        <v>0.9572949093660573</v>
+        <v>0.95729490936605732</v>
       </c>
       <c r="J5">
-        <v>0.7700697682334419</v>
+        <v>0.77006976823344186</v>
       </c>
       <c r="K5">
-        <v>0.2391307449160724</v>
+        <v>0.23913074491607239</v>
       </c>
       <c r="L5">
-        <v>0.6544770129411396</v>
+        <v>0.65447701294113958</v>
       </c>
       <c r="M5">
-        <v>0.2963760885892971</v>
+        <v>0.29637608858929709</v>
       </c>
       <c r="N5">
-        <v>0.6592662664720245</v>
+        <v>0.65926626647202446</v>
       </c>
       <c r="O5">
         <v>0.1495418888998504</v>
       </c>
       <c r="P5">
-        <v>0.6562662146181636</v>
+        <v>0.65626621461816359</v>
       </c>
       <c r="Q5">
-        <v>1.178400576324334</v>
+        <v>1.1784005763243339</v>
       </c>
       <c r="R5">
-        <v>1.287276490439596</v>
+        <v>1.2872764904395959</v>
       </c>
       <c r="S5">
-        <v>0.710272828295983</v>
+        <v>0.71027282829598304</v>
       </c>
       <c r="T5">
-        <v>0.7031531310370291</v>
+        <v>0.70315313103702914</v>
       </c>
       <c r="U5">
-        <v>0.7148408191777759</v>
+        <v>0.71484081917777587</v>
       </c>
       <c r="V5">
-        <v>0.4832554952942065</v>
+        <v>0.48325549529420653</v>
       </c>
       <c r="W5">
-        <v>0.2644341088258199</v>
+        <v>0.26443410882581991</v>
       </c>
       <c r="X5">
-        <v>0.311976120099923</v>
+        <v>0.31197612009992298</v>
       </c>
       <c r="Y5">
-        <v>0.6490339859951537</v>
+        <v>0.64903398599515372</v>
       </c>
       <c r="Z5">
         <v>0.1567523802462073</v>
@@ -1168,105 +1443,105 @@
         <v>0.2257761368418251</v>
       </c>
       <c r="AB5">
-        <v>0.436683879573897</v>
+        <v>0.43668387957389698</v>
       </c>
       <c r="AC5">
-        <v>0.7082206911642983</v>
+        <v>0.70822069116429831</v>
       </c>
       <c r="AD5">
         <v>1.057617235018099</v>
       </c>
       <c r="AE5">
-        <v>1.103898047091974</v>
+        <v>1.1038980470919739</v>
       </c>
       <c r="AF5">
-        <v>0.7279213196882972</v>
+        <v>0.72792131968829721</v>
       </c>
       <c r="AG5">
-        <v>0.762983913541623</v>
+        <v>0.76298391354162298</v>
       </c>
       <c r="AH5">
-        <v>0.7759412714551144</v>
+        <v>0.77594127145511438</v>
       </c>
       <c r="AI5">
-        <v>0.347560633903978</v>
+        <v>0.34756063390397801</v>
       </c>
       <c r="AJ5">
-        <v>0.4320739820096212</v>
+        <v>0.43207398200962122</v>
       </c>
       <c r="AK5">
-        <v>0.9475830125226947</v>
+        <v>0.94758301252269472</v>
       </c>
       <c r="AL5">
-        <v>0.9679254200837406</v>
+        <v>0.96792542008374061</v>
       </c>
       <c r="AM5">
-        <v>-0.3508404538432682</v>
+        <v>-0.35084045384326817</v>
       </c>
       <c r="AN5">
-        <v>0.6930043839288286</v>
+        <v>0.69300438392882857</v>
       </c>
       <c r="AO5">
-        <v>0.5413108644106577</v>
+        <v>0.54131086441065768</v>
       </c>
       <c r="AP5">
-        <v>0.8879740082983655</v>
+        <v>0.88797400829836548</v>
       </c>
       <c r="AQ5">
-        <v>0.8395904192088701</v>
+        <v>0.83959041920887012</v>
       </c>
       <c r="AR5">
-        <v>0.5164548275381184</v>
+        <v>0.51645482753811844</v>
       </c>
       <c r="AS5">
-        <v>0.2614537626248507</v>
+        <v>0.26145376262485071</v>
       </c>
       <c r="AT5">
-        <v>0.02870905995465135</v>
+        <v>2.870905995465135E-2</v>
       </c>
       <c r="AU5">
         <v>-0.1460261960026791</v>
       </c>
       <c r="AV5">
-        <v>0.2010284745473339</v>
+        <v>0.20102847454733391</v>
       </c>
       <c r="AW5">
-        <v>0.2862528455441993</v>
+        <v>0.28625284554419927</v>
       </c>
       <c r="AX5">
-        <v>0.6267134571973741</v>
+        <v>0.62671345719737415</v>
       </c>
       <c r="AY5">
-        <v>0.7002146926666724</v>
+        <v>0.70021469266667236</v>
       </c>
       <c r="AZ5">
-        <v>0.8960728932292246</v>
+        <v>0.89607289322922457</v>
       </c>
       <c r="BA5">
-        <v>0.3429200548929554</v>
+        <v>0.34292005489295541</v>
       </c>
       <c r="BB5">
-        <v>0.7499785257729529</v>
+        <v>0.74997852577295288</v>
       </c>
       <c r="BC5">
-        <v>0.7136451822498022</v>
+        <v>0.71364518224980222</v>
       </c>
       <c r="BD5">
         <v>0.1198754504708507</v>
       </c>
       <c r="BE5">
-        <v>0.8269903272120896</v>
+        <v>0.82699032721208965</v>
       </c>
       <c r="BF5">
-        <v>0.5031363480691893</v>
+        <v>0.50313634806918928</v>
       </c>
       <c r="BG5">
-        <v>0.4897316694741239</v>
+        <v>0.48973166947412389</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B6">
         <v>2.039577729333351</v>
@@ -1278,109 +1553,109 @@
         <v>1.814431613377391</v>
       </c>
       <c r="E6">
-        <v>2.156681902998122</v>
+        <v>2.1566819029981219</v>
       </c>
       <c r="F6">
-        <v>1.517033915867764</v>
+        <v>1.5170339158677639</v>
       </c>
       <c r="G6">
-        <v>1.653788994827032</v>
+        <v>1.6537889948270319</v>
       </c>
       <c r="H6">
-        <v>2.315690066820338</v>
+        <v>2.3156900668203382</v>
       </c>
       <c r="I6">
         <v>1.835404648310323</v>
       </c>
       <c r="J6">
-        <v>1.899497385537053</v>
+        <v>1.8994973855370529</v>
       </c>
       <c r="K6">
-        <v>1.766489058074651</v>
+        <v>1.7664890580746511</v>
       </c>
       <c r="L6">
-        <v>2.110334279241435</v>
+        <v>2.1103342792414348</v>
       </c>
       <c r="M6">
-        <v>2.047663474673841</v>
+        <v>2.0476634746738411</v>
       </c>
       <c r="N6">
-        <v>1.517718729817649</v>
+        <v>1.5177187298176491</v>
       </c>
       <c r="O6">
-        <v>1.944746711426519</v>
+        <v>1.9447467114265189</v>
       </c>
       <c r="P6">
-        <v>1.912814919089716</v>
+        <v>1.9128149190897159</v>
       </c>
       <c r="Q6">
-        <v>1.565285211705285</v>
+        <v>1.5652852117052849</v>
       </c>
       <c r="R6">
-        <v>1.923125705595509</v>
+        <v>1.9231257055955091</v>
       </c>
       <c r="S6">
         <v>1.848719804409543</v>
       </c>
       <c r="T6">
-        <v>1.835536468622743</v>
+        <v>1.8355364686227429</v>
       </c>
       <c r="U6">
-        <v>2.217612809452865</v>
+        <v>2.2176128094528651</v>
       </c>
       <c r="V6">
         <v>2.273963174200142</v>
       </c>
       <c r="W6">
-        <v>1.775787143717707</v>
+        <v>1.7757871437177071</v>
       </c>
       <c r="X6">
-        <v>1.440615913499128</v>
+        <v>1.4406159134991281</v>
       </c>
       <c r="Y6">
-        <v>1.723294246788612</v>
+        <v>1.7232942467886121</v>
       </c>
       <c r="Z6">
-        <v>1.731471054270025</v>
+        <v>1.7314710542700249</v>
       </c>
       <c r="AA6">
-        <v>1.614761685993895</v>
+        <v>1.6147616859938949</v>
       </c>
       <c r="AB6">
-        <v>1.908757906280811</v>
+        <v>1.9087579062808111</v>
       </c>
       <c r="AC6">
-        <v>1.945739472791889</v>
+        <v>1.9457394727918891</v>
       </c>
       <c r="AD6">
-        <v>2.156722575452584</v>
+        <v>2.1567225754525841</v>
       </c>
       <c r="AE6">
         <v>1.972977014745805</v>
       </c>
       <c r="AF6">
-        <v>1.957173703098594</v>
+        <v>1.9571737030985941</v>
       </c>
       <c r="AG6">
         <v>1.819408235050556</v>
       </c>
       <c r="AH6">
-        <v>1.459416927916308</v>
+        <v>1.4594169279163081</v>
       </c>
       <c r="AI6">
         <v>1.733121898297096</v>
       </c>
       <c r="AJ6">
-        <v>1.446019322372135</v>
+        <v>1.4460193223721349</v>
       </c>
       <c r="AK6">
         <v>1.894789415186457</v>
       </c>
       <c r="AL6">
-        <v>2.302442636014003</v>
+        <v>2.3024426360140029</v>
       </c>
       <c r="AM6">
-        <v>1.882914758163246</v>
+        <v>1.8829147581632459</v>
       </c>
       <c r="AN6">
         <v>1.713386192838775</v>
@@ -1389,10 +1664,10 @@
         <v>2.061613099140895</v>
       </c>
       <c r="AP6">
-        <v>1.874886882437313</v>
+        <v>1.8748868824373131</v>
       </c>
       <c r="AQ6">
-        <v>2.13787536396993</v>
+        <v>2.1378753639699299</v>
       </c>
       <c r="AR6">
         <v>1.879695865770697</v>
@@ -1401,10 +1676,10 @@
         <v>1.646939216018585</v>
       </c>
       <c r="AT6">
-        <v>1.783409729790748</v>
+        <v>1.7834097297907481</v>
       </c>
       <c r="AU6">
-        <v>1.65864792454103</v>
+        <v>1.6586479245410299</v>
       </c>
       <c r="AV6">
         <v>1.923903568931395</v>
@@ -1416,10 +1691,10 @@
         <v>1.600850788165777</v>
       </c>
       <c r="AY6">
-        <v>1.883362262081176</v>
+        <v>1.8833622620811761</v>
       </c>
       <c r="AZ6">
-        <v>1.84834452890299</v>
+        <v>1.8483445289029901</v>
       </c>
       <c r="BA6">
         <v>1.864861429421047</v>
@@ -1428,7 +1703,7 @@
         <v>1.917952207611775</v>
       </c>
       <c r="BC6">
-        <v>1.632718956269193</v>
+        <v>1.6327189562691931</v>
       </c>
       <c r="BD6">
         <v>1.4614530571447</v>
@@ -1437,30 +1712,30 @@
         <v>1.611786953840094</v>
       </c>
       <c r="BF6">
-        <v>2.159909827995224</v>
+        <v>2.1599098279952238</v>
       </c>
       <c r="BG6">
-        <v>1.55220341644711</v>
+        <v>1.5522034164471099</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>0.9062317102527377</v>
+        <v>0.90623171025273774</v>
       </c>
       <c r="C7">
-        <v>0.5327321502445541</v>
+        <v>0.53273215024455411</v>
       </c>
       <c r="D7">
-        <v>0.3799041968429231</v>
+        <v>0.37990419684292309</v>
       </c>
       <c r="E7">
-        <v>0.7982351974809606</v>
+        <v>0.79823519748096061</v>
       </c>
       <c r="F7">
-        <v>0.4238620920175458</v>
+        <v>0.42386209201754582</v>
       </c>
       <c r="G7">
         <v>0.3845943747673144</v>
@@ -1469,270 +1744,270 @@
         <v>1.018629250620503</v>
       </c>
       <c r="I7">
-        <v>0.7689758263903937</v>
+        <v>0.76897582639039375</v>
       </c>
       <c r="J7">
-        <v>1.284840194970838</v>
+        <v>1.2848401949708379</v>
       </c>
       <c r="K7">
-        <v>0.6541722708538347</v>
+        <v>0.65417227085383467</v>
       </c>
       <c r="L7">
-        <v>1.044684676513712</v>
+        <v>1.0446846765137121</v>
       </c>
       <c r="M7">
-        <v>0.731792564338791</v>
+        <v>0.73179256433879103</v>
       </c>
       <c r="N7">
-        <v>0.7048760896542955</v>
+        <v>0.70487608965429549</v>
       </c>
       <c r="O7">
-        <v>0.6698609345708388</v>
+        <v>0.66986093457083884</v>
       </c>
       <c r="P7">
-        <v>0.5250803993063453</v>
+        <v>0.52508039930634531</v>
       </c>
       <c r="Q7">
-        <v>0.8792452989187503</v>
+        <v>0.87924529891875025</v>
       </c>
       <c r="R7">
         <v>0.7622746404168369</v>
       </c>
       <c r="S7">
-        <v>0.5426618899757905</v>
+        <v>0.54266188997579046</v>
       </c>
       <c r="T7">
-        <v>0.699345522437223</v>
+        <v>0.69934552243722303</v>
       </c>
       <c r="U7">
         <v>1.206388626896753</v>
       </c>
       <c r="V7">
-        <v>0.8854596132853367</v>
+        <v>0.88545961328533673</v>
       </c>
       <c r="W7">
-        <v>0.6299219356396902</v>
+        <v>0.62992193563969023</v>
       </c>
       <c r="X7">
-        <v>0.4546310952059596</v>
+        <v>0.45463109520595962</v>
       </c>
       <c r="Y7">
         <v>0.5615203506588774</v>
       </c>
       <c r="Z7">
-        <v>0.3731072083025324</v>
+        <v>0.37310720830253241</v>
       </c>
       <c r="AA7">
-        <v>0.7288544790300023</v>
+        <v>0.72885447903000233</v>
       </c>
       <c r="AB7">
         <v>1.036697050763987</v>
       </c>
       <c r="AC7">
-        <v>0.5675806359517624</v>
+        <v>0.56758063595176245</v>
       </c>
       <c r="AD7">
-        <v>1.199530045606109</v>
+        <v>1.1995300456061091</v>
       </c>
       <c r="AE7">
-        <v>0.9237299246885077</v>
+        <v>0.92372992468850768</v>
       </c>
       <c r="AF7">
-        <v>0.9218714283210636</v>
+        <v>0.92187142832106361</v>
       </c>
       <c r="AG7">
         <v>0.8561227697448236</v>
       </c>
       <c r="AH7">
-        <v>0.4217193116113832</v>
+        <v>0.42171931161138321</v>
       </c>
       <c r="AI7">
         <v>0.4492361113588127</v>
       </c>
       <c r="AJ7">
-        <v>0.7198794281627182</v>
+        <v>0.71987942816271822</v>
       </c>
       <c r="AK7">
-        <v>0.7585711810126289</v>
+        <v>0.75857118101262888</v>
       </c>
       <c r="AL7">
-        <v>1.057149571209092</v>
+        <v>1.0571495712090919</v>
       </c>
       <c r="AM7">
-        <v>0.6861508166348381</v>
+        <v>0.68615081663483812</v>
       </c>
       <c r="AN7">
-        <v>0.776252764093331</v>
+        <v>0.77625276409333099</v>
       </c>
       <c r="AO7">
         <v>0.574647700131802</v>
       </c>
       <c r="AP7">
-        <v>0.8076282061401895</v>
+        <v>0.80762820614018949</v>
       </c>
       <c r="AQ7">
         <v>0.3914811150595211</v>
       </c>
       <c r="AR7">
-        <v>0.7634765818540704</v>
+        <v>0.76347658185407041</v>
       </c>
       <c r="AS7">
-        <v>0.4959033819050491</v>
+        <v>0.49590338190504912</v>
       </c>
       <c r="AT7">
-        <v>0.559076377362514</v>
+        <v>0.55907637736251403</v>
       </c>
       <c r="AU7">
         <v>0.3484913051274558</v>
       </c>
       <c r="AV7">
-        <v>0.5544197517989443</v>
+        <v>0.55441975179894432</v>
       </c>
       <c r="AW7">
-        <v>0.5636519916265986</v>
+        <v>0.56365199162659863</v>
       </c>
       <c r="AX7">
-        <v>1.040001097446493</v>
+        <v>1.0400010974464931</v>
       </c>
       <c r="AY7">
-        <v>0.7759658706007648</v>
+        <v>0.77596587060076483</v>
       </c>
       <c r="AZ7">
         <v>1.159292842892848</v>
       </c>
       <c r="BA7">
-        <v>0.9684405808510984</v>
+        <v>0.96844058085109841</v>
       </c>
       <c r="BB7">
-        <v>0.572044586063385</v>
+        <v>0.57204458606338504</v>
       </c>
       <c r="BC7">
-        <v>0.7639316886656879</v>
+        <v>0.76393168866568795</v>
       </c>
       <c r="BD7">
-        <v>0.4930495362351071</v>
+        <v>0.49304953623510711</v>
       </c>
       <c r="BE7">
-        <v>0.4428825604532022</v>
+        <v>0.44288256045320218</v>
       </c>
       <c r="BF7">
-        <v>1.086886014618517</v>
+        <v>1.0868860146185171</v>
       </c>
       <c r="BG7">
-        <v>0.6296403842991268</v>
+        <v>0.62964038429912683</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>0.4900829110415875</v>
+        <v>0.49008291104158752</v>
       </c>
       <c r="C8">
-        <v>0.07935198064453355</v>
+        <v>7.9351980644533554E-2</v>
       </c>
       <c r="D8">
-        <v>0.2045481299971071</v>
+        <v>0.20454812999710709</v>
       </c>
       <c r="E8">
-        <v>0.4887721581544553</v>
+        <v>0.48877215815445529</v>
       </c>
       <c r="F8">
-        <v>0.05088467514086816</v>
+        <v>5.0884675140868162E-2</v>
       </c>
       <c r="G8">
-        <v>0.5389463680427024</v>
+        <v>0.53894636804270235</v>
       </c>
       <c r="H8">
-        <v>0.7563476724211879</v>
+        <v>0.75634767242118794</v>
       </c>
       <c r="I8">
         <v>0.2079923564480361</v>
       </c>
       <c r="J8">
-        <v>0.2981862799125313</v>
+        <v>0.29818627991253133</v>
       </c>
       <c r="K8">
-        <v>0.6353561142136294</v>
+        <v>0.63535611421362936</v>
       </c>
       <c r="L8">
-        <v>0.7227098524468996</v>
+        <v>0.72270985244689956</v>
       </c>
       <c r="M8">
         <v>0.6791908698984207</v>
       </c>
       <c r="N8">
-        <v>0.5848182114707887</v>
+        <v>0.58481821147078872</v>
       </c>
       <c r="O8">
-        <v>0.1252263134772307</v>
+        <v>0.12522631347723071</v>
       </c>
       <c r="P8">
-        <v>0.9315044556282344</v>
+        <v>0.93150445562823436</v>
       </c>
       <c r="Q8">
-        <v>0.4402798865842278</v>
+        <v>0.44027988658422779</v>
       </c>
       <c r="R8">
-        <v>0.7311332139839081</v>
+        <v>0.73113321398390807</v>
       </c>
       <c r="S8">
-        <v>0.5021450193575517</v>
+        <v>0.50214501935755174</v>
       </c>
       <c r="T8">
-        <v>0.8975030336772399</v>
+        <v>0.89750303367723994</v>
       </c>
       <c r="U8">
-        <v>1.118799244705697</v>
+        <v>1.1187992447056969</v>
       </c>
       <c r="V8">
-        <v>0.9853858648158866</v>
+        <v>0.98538586481588664</v>
       </c>
       <c r="W8">
         <v>0.6511797288492247</v>
       </c>
       <c r="X8">
-        <v>0.09511235807577738</v>
+        <v>9.5112358075777378E-2</v>
       </c>
       <c r="Y8">
-        <v>0.5665423719399523</v>
+        <v>0.56654237193995227</v>
       </c>
       <c r="Z8">
-        <v>0.3533884676650527</v>
+        <v>0.35338846766505272</v>
       </c>
       <c r="AA8">
-        <v>0.8265888484988513</v>
+        <v>0.82658884849885128</v>
       </c>
       <c r="AB8">
-        <v>0.8705294519934791</v>
+        <v>0.87052945199347909</v>
       </c>
       <c r="AC8">
-        <v>0.5264701309208382</v>
+        <v>0.52647013092083816</v>
       </c>
       <c r="AD8">
-        <v>0.7939469391346436</v>
+        <v>0.79394693913464365</v>
       </c>
       <c r="AE8">
-        <v>0.998223335744941</v>
+        <v>0.99822333574494104</v>
       </c>
       <c r="AF8">
-        <v>0.8329182028305028</v>
+        <v>0.83291820283050277</v>
       </c>
       <c r="AG8">
-        <v>0.9477049600201991</v>
+        <v>0.94770496002019911</v>
       </c>
       <c r="AH8">
-        <v>0.5456875522402425</v>
+        <v>0.54568755224024246</v>
       </c>
       <c r="AI8">
-        <v>0.2279995857911637</v>
+        <v>0.22799958579116369</v>
       </c>
       <c r="AJ8">
-        <v>0.1495685445523462</v>
+        <v>0.14956854455234619</v>
       </c>
       <c r="AK8">
-        <v>0.528308660176226</v>
+        <v>0.52830866017622602</v>
       </c>
       <c r="AL8">
         <v>0.9990349666168391</v>
@@ -1741,99 +2016,99 @@
         <v>0.2278591531714276</v>
       </c>
       <c r="AN8">
-        <v>0.2642465354164886</v>
+        <v>0.26424653541648863</v>
       </c>
       <c r="AO8">
-        <v>0.6370754553682179</v>
+        <v>0.63707545536821786</v>
       </c>
       <c r="AP8">
-        <v>0.7978353902325586</v>
+        <v>0.79783539023255856</v>
       </c>
       <c r="AQ8">
-        <v>0.6938992303832546</v>
+        <v>0.69389923038325463</v>
       </c>
       <c r="AR8">
         <v>0.6639163137534082</v>
       </c>
       <c r="AS8">
-        <v>0.4958058371789777</v>
+        <v>0.49580583717897769</v>
       </c>
       <c r="AT8">
         <v>0.1323046079201208</v>
       </c>
       <c r="AU8">
-        <v>0.3238520889035303</v>
+        <v>0.32385208890353029</v>
       </c>
       <c r="AV8">
-        <v>0.5858829725214736</v>
+        <v>0.58588297252147359</v>
       </c>
       <c r="AW8">
-        <v>0.4317673191260875</v>
+        <v>0.43176731912608751</v>
       </c>
       <c r="AX8">
-        <v>0.9780942855399868</v>
+        <v>0.97809428553998679</v>
       </c>
       <c r="AY8">
-        <v>0.4435318253971726</v>
+        <v>0.44353182539717262</v>
       </c>
       <c r="AZ8">
-        <v>0.7654031556512506</v>
+        <v>0.76540315565125061</v>
       </c>
       <c r="BA8">
-        <v>0.7495652750934961</v>
+        <v>0.74956527509349613</v>
       </c>
       <c r="BB8">
         <v>0.6229781526651621</v>
       </c>
       <c r="BC8">
-        <v>0.2284950979221577</v>
+        <v>0.22849509792215769</v>
       </c>
       <c r="BD8">
-        <v>0.1286483234222666</v>
+        <v>0.12864832342226659</v>
       </c>
       <c r="BE8">
-        <v>0.4701480398077379</v>
+        <v>0.47014803980773789</v>
       </c>
       <c r="BF8">
-        <v>0.8328947615772679</v>
+        <v>0.83289476157726794</v>
       </c>
       <c r="BG8">
-        <v>-0.1912666726429487</v>
+        <v>-0.19126667264294869</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>0.8138686383326665</v>
+        <v>0.81386863833266654</v>
       </c>
       <c r="C9">
-        <v>0.4970547208355475</v>
+        <v>0.49705472083554753</v>
       </c>
       <c r="D9">
-        <v>0.2909262791247624</v>
+        <v>0.29092627912476238</v>
       </c>
       <c r="E9">
         <v>1.061798945863337</v>
       </c>
       <c r="F9">
-        <v>0.3972676961463429</v>
+        <v>0.39726769614634289</v>
       </c>
       <c r="G9">
         <v>0.1241614959287298</v>
       </c>
       <c r="H9">
-        <v>1.132569505488252</v>
+        <v>1.1325695054882521</v>
       </c>
       <c r="I9">
-        <v>0.9942698490930664</v>
+        <v>0.99426984909306637</v>
       </c>
       <c r="J9">
-        <v>0.5839925325035304</v>
+        <v>0.58399253250353045</v>
       </c>
       <c r="K9">
-        <v>0.5620509558480937</v>
+        <v>0.56205095584809373</v>
       </c>
       <c r="L9">
         <v>0.9535549950439911</v>
@@ -1845,255 +2120,255 @@
         <v>0.4007621948042962</v>
       </c>
       <c r="O9">
-        <v>0.5683175591857592</v>
+        <v>0.56831755918575921</v>
       </c>
       <c r="P9">
-        <v>0.8608588760277771</v>
+        <v>0.86085887602777711</v>
       </c>
       <c r="Q9">
-        <v>1.179949523876818</v>
+        <v>1.1799495238768181</v>
       </c>
       <c r="R9">
-        <v>1.202614037296926</v>
+        <v>1.2026140372969261</v>
       </c>
       <c r="S9">
-        <v>0.7514852802970863</v>
+        <v>0.75148528029708628</v>
       </c>
       <c r="T9">
-        <v>0.9224365619790771</v>
+        <v>0.92243656197907709</v>
       </c>
       <c r="U9">
-        <v>1.013995701238463</v>
+        <v>1.0139957012384631</v>
       </c>
       <c r="V9">
-        <v>-0.02571720758671617</v>
+        <v>-2.5717207586716171E-2</v>
       </c>
       <c r="W9">
-        <v>0.7738983316186123</v>
+        <v>0.77389833161861232</v>
       </c>
       <c r="X9">
-        <v>0.2081415059319847</v>
+        <v>0.20814150593198469</v>
       </c>
       <c r="Y9">
-        <v>0.6307175532135829</v>
+        <v>0.63071755321358292</v>
       </c>
       <c r="Z9">
         <v>0.4559255340289004</v>
       </c>
       <c r="AA9">
-        <v>0.5224528695273206</v>
+        <v>0.52245286952732062</v>
       </c>
       <c r="AB9">
-        <v>0.9901245499890889</v>
+        <v>0.99012454998908894</v>
       </c>
       <c r="AC9">
-        <v>0.4723307285345512</v>
+        <v>0.47233072853455121</v>
       </c>
       <c r="AD9">
-        <v>0.9634332097643029</v>
+        <v>0.96343320976430291</v>
       </c>
       <c r="AE9">
-        <v>0.637180846974633</v>
+        <v>0.63718084697463295</v>
       </c>
       <c r="AF9">
         <v>0.5375318382113855</v>
       </c>
       <c r="AG9">
-        <v>0.847505647893073</v>
+        <v>0.84750564789307303</v>
       </c>
       <c r="AH9">
-        <v>0.4955762624249131</v>
+        <v>0.49557626242491309</v>
       </c>
       <c r="AI9">
-        <v>0.3963089578096968</v>
+        <v>0.39630895780969683</v>
       </c>
       <c r="AJ9">
-        <v>0.5226716757607743</v>
+        <v>0.52267167576077433</v>
       </c>
       <c r="AK9">
-        <v>0.3171798660576551</v>
+        <v>0.31717986605765508</v>
       </c>
       <c r="AL9">
-        <v>0.7988299264988796</v>
+        <v>0.79882992649887963</v>
       </c>
       <c r="AM9">
-        <v>0.375801913437557</v>
+        <v>0.37580191343755698</v>
       </c>
       <c r="AN9">
         <v>0.7206473308793343</v>
       </c>
       <c r="AO9">
-        <v>0.7608600954653478</v>
+        <v>0.76086009546534783</v>
       </c>
       <c r="AP9">
-        <v>1.428311632316354</v>
+        <v>1.4283116323163541</v>
       </c>
       <c r="AQ9">
-        <v>0.628611484653167</v>
+        <v>0.62861148465316696</v>
       </c>
       <c r="AR9">
-        <v>0.9424753654413036</v>
+        <v>0.94247536544130361</v>
       </c>
       <c r="AS9">
-        <v>0.4232716700528462</v>
+        <v>0.42327167005284622</v>
       </c>
       <c r="AT9">
         <v>0.7347084193088651</v>
       </c>
       <c r="AU9">
-        <v>0.4987405593076953</v>
+        <v>0.49874055930769529</v>
       </c>
       <c r="AV9">
-        <v>0.9221401928137506</v>
+        <v>0.92214019281375059</v>
       </c>
       <c r="AW9">
-        <v>0.6090005186094795</v>
+        <v>0.60900051860947946</v>
       </c>
       <c r="AX9">
         <v>0.63085876347379</v>
       </c>
       <c r="AY9">
-        <v>0.5843047946930512</v>
+        <v>0.58430479469305119</v>
       </c>
       <c r="AZ9">
-        <v>0.6359830596032841</v>
+        <v>0.63598305960328405</v>
       </c>
       <c r="BA9">
-        <v>0.6582797905074205</v>
+        <v>0.65827979050742047</v>
       </c>
       <c r="BB9">
-        <v>0.5858025350012075</v>
+        <v>0.58580253500120749</v>
       </c>
       <c r="BC9">
-        <v>0.6864297036582255</v>
+        <v>0.68642970365822553</v>
       </c>
       <c r="BD9">
-        <v>0.2979887800934511</v>
+        <v>0.29798878009345109</v>
       </c>
       <c r="BE9">
-        <v>0.8692758443577117</v>
+        <v>0.86927584435771166</v>
       </c>
       <c r="BF9">
-        <v>0.5234394523995113</v>
+        <v>0.52343945239951128</v>
       </c>
       <c r="BG9">
         <v>0.5042158492082941</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>0.5243780502145199</v>
+        <v>0.52437805021451989</v>
       </c>
       <c r="C10">
-        <v>0.1615312659318512</v>
+        <v>0.16153126593185119</v>
       </c>
       <c r="D10">
-        <v>0.2921472567244368</v>
+        <v>0.29214725672443681</v>
       </c>
       <c r="E10">
         <v>0.7131863114879351</v>
       </c>
       <c r="F10">
-        <v>0.1152901905148423</v>
+        <v>0.11529019051484229</v>
       </c>
       <c r="G10">
-        <v>0.2206873397127403</v>
+        <v>0.22068733971274029</v>
       </c>
       <c r="H10">
-        <v>0.2701089890210226</v>
+        <v>0.27010898902102259</v>
       </c>
       <c r="I10">
-        <v>0.2886904713984575</v>
+        <v>0.28869047139845749</v>
       </c>
       <c r="J10">
-        <v>-0.05704873366293559</v>
+        <v>-5.7048733662935593E-2</v>
       </c>
       <c r="K10">
-        <v>-0.4802070047372448</v>
+        <v>-0.48020700473724481</v>
       </c>
       <c r="L10">
-        <v>0.8471321326564459</v>
+        <v>0.84713213265644594</v>
       </c>
       <c r="M10">
-        <v>0.03152407123957669</v>
+        <v>3.1524071239576693E-2</v>
       </c>
       <c r="N10">
-        <v>-0.04745908803692588</v>
+        <v>-4.7459088036925882E-2</v>
       </c>
       <c r="O10">
         <v>-0.1418890146220427</v>
       </c>
       <c r="P10">
-        <v>0.3369032879024029</v>
+        <v>0.33690328790240293</v>
       </c>
       <c r="Q10">
-        <v>0.4154016111113468</v>
+        <v>0.41540161111134682</v>
       </c>
       <c r="R10">
-        <v>0.4653765773902935</v>
+        <v>0.46537657739029348</v>
       </c>
       <c r="S10">
-        <v>0.2371432056756596</v>
+        <v>0.23714320567565961</v>
       </c>
       <c r="T10">
-        <v>0.6275145030361768</v>
+        <v>0.62751450303617684</v>
       </c>
       <c r="U10">
-        <v>0.4436186558487561</v>
+        <v>0.44361865584875609</v>
       </c>
       <c r="V10">
-        <v>0.5759888664787169</v>
+        <v>0.57598886647871694</v>
       </c>
       <c r="W10">
-        <v>-0.04530302755293902</v>
+        <v>-4.5303027552939017E-2</v>
       </c>
       <c r="X10">
-        <v>-0.3178229977055382</v>
+        <v>-0.31782299770553818</v>
       </c>
       <c r="Y10">
-        <v>0.3179432699939115</v>
+        <v>0.31794326999391148</v>
       </c>
       <c r="Z10">
-        <v>0.09364865887196692</v>
+        <v>9.3648658871966925E-2</v>
       </c>
       <c r="AA10">
-        <v>0.1002482289400903</v>
+        <v>0.10024822894009031</v>
       </c>
       <c r="AB10">
-        <v>0.5813142443871059</v>
+        <v>0.58131424438710588</v>
       </c>
       <c r="AC10">
-        <v>0.1250172257408065</v>
+        <v>0.12501722574080651</v>
       </c>
       <c r="AD10">
-        <v>0.6366055955792815</v>
+        <v>0.63660559557928154</v>
       </c>
       <c r="AE10">
-        <v>0.6693567500969205</v>
+        <v>0.66935675009692053</v>
       </c>
       <c r="AF10">
-        <v>-0.08997689782045083</v>
+        <v>-8.9976897820450832E-2</v>
       </c>
       <c r="AG10">
-        <v>0.680286080525192</v>
+        <v>0.68028608052519202</v>
       </c>
       <c r="AH10">
-        <v>0.1447876786840394</v>
+        <v>0.14478767868403941</v>
       </c>
       <c r="AI10">
-        <v>0.09451710114284019</v>
+        <v>9.451710114284019E-2</v>
       </c>
       <c r="AJ10">
         <v>-0.1499685583769691</v>
       </c>
       <c r="AK10">
-        <v>0.3875190638160457</v>
+        <v>0.38751906381604567</v>
       </c>
       <c r="AL10">
-        <v>0.3552391970940343</v>
+        <v>0.35523919709403429</v>
       </c>
       <c r="AM10">
         <v>-0.1547462023220651</v>
@@ -2102,19 +2377,19 @@
         <v>0.1040260717446657</v>
       </c>
       <c r="AO10">
-        <v>0.5927256660199794</v>
+        <v>0.59272566601997945</v>
       </c>
       <c r="AP10">
         <v>0.2357065427246334</v>
       </c>
       <c r="AQ10">
-        <v>0.7433160999793261</v>
+        <v>0.74331609997932613</v>
       </c>
       <c r="AR10">
-        <v>0.4900855420465925</v>
+        <v>0.49008554204659249</v>
       </c>
       <c r="AS10">
-        <v>0.15887335225344</v>
+        <v>0.15887335225343999</v>
       </c>
       <c r="AT10">
         <v>0.1324094982667644</v>
@@ -2123,54 +2398,54 @@
         <v>0.237527904686376</v>
       </c>
       <c r="AV10">
-        <v>0.5486108579910038</v>
+        <v>0.54861085799100384</v>
       </c>
       <c r="AW10">
-        <v>0.07473995229752131</v>
+        <v>7.4739952297521312E-2</v>
       </c>
       <c r="AX10">
-        <v>0.3970262798348771</v>
+        <v>0.39702627983487709</v>
       </c>
       <c r="AY10">
         <v>0.2091021588157084</v>
       </c>
       <c r="AZ10">
-        <v>0.4602730522647634</v>
+        <v>0.46027305226476339</v>
       </c>
       <c r="BA10">
-        <v>0.1125006370704335</v>
+        <v>0.11250063707043351</v>
       </c>
       <c r="BB10">
-        <v>0.0222612436341186</v>
+        <v>2.2261243634118601E-2</v>
       </c>
       <c r="BC10">
-        <v>0.3107067390505517</v>
+        <v>0.31070673905055168</v>
       </c>
       <c r="BD10">
         <v>0.4007238614896686</v>
       </c>
       <c r="BE10">
-        <v>0.1570718782497365</v>
+        <v>0.15707187824973651</v>
       </c>
       <c r="BF10">
-        <v>-0.040677870774283</v>
+        <v>-4.0677870774282997E-2</v>
       </c>
       <c r="BG10">
         <v>0.2084829095690752</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>0.452155166785087</v>
+        <v>0.45215516678508699</v>
       </c>
       <c r="C11">
-        <v>0.5085566847434349</v>
+        <v>0.50855668474343485</v>
       </c>
       <c r="D11">
-        <v>0.5701251623052743</v>
+        <v>0.57012516230527432</v>
       </c>
       <c r="E11">
         <v>1.38746984320872</v>
@@ -2179,151 +2454,151 @@
         <v>0.6862117494059059</v>
       </c>
       <c r="G11">
-        <v>1.452657821301447</v>
+        <v>1.4526578213014469</v>
       </c>
       <c r="H11">
-        <v>1.02357995940386</v>
+        <v>1.0235799594038599</v>
       </c>
       <c r="I11">
-        <v>0.6542144485893515</v>
+        <v>0.65421444858935152</v>
       </c>
       <c r="J11">
-        <v>0.5513559024307048</v>
+        <v>0.55135590243070476</v>
       </c>
       <c r="K11">
-        <v>0.672731776868072</v>
+        <v>0.67273177686807195</v>
       </c>
       <c r="L11">
         <v>1.46955476573514</v>
       </c>
       <c r="M11">
-        <v>1.105836214377453</v>
+        <v>1.1058362143774529</v>
       </c>
       <c r="N11">
-        <v>0.3707322943112444</v>
+        <v>0.37073229431124438</v>
       </c>
       <c r="O11">
-        <v>0.5222822212171973</v>
+        <v>0.52228222121719725</v>
       </c>
       <c r="P11">
         <v>0.5404053698476553</v>
       </c>
       <c r="Q11">
-        <v>1.052635806789287</v>
+        <v>1.0526358067892869</v>
       </c>
       <c r="R11">
-        <v>0.9563804078304031</v>
+        <v>0.95638040783040312</v>
       </c>
       <c r="S11">
         <v>0.8959527665962409</v>
       </c>
       <c r="T11">
-        <v>0.5159816277592326</v>
+        <v>0.51598162775923262</v>
       </c>
       <c r="U11">
-        <v>1.431573929200313</v>
+        <v>1.4315739292003129</v>
       </c>
       <c r="V11">
-        <v>0.9798761504172148</v>
+        <v>0.97987615041721476</v>
       </c>
       <c r="W11">
-        <v>0.773030124712187</v>
+        <v>0.77303012471218702</v>
       </c>
       <c r="X11">
-        <v>0.5788785922079216</v>
+        <v>0.57887859220792159</v>
       </c>
       <c r="Y11">
-        <v>0.5344658186255069</v>
+        <v>0.53446581862550691</v>
       </c>
       <c r="Z11">
-        <v>0.3455795002975786</v>
+        <v>0.34557950029757861</v>
       </c>
       <c r="AA11">
-        <v>0.6390545445269283</v>
+        <v>0.63905454452692834</v>
       </c>
       <c r="AB11">
         <v>1.17617754466832</v>
       </c>
       <c r="AC11">
-        <v>1.250423234284005</v>
+        <v>1.2504232342840049</v>
       </c>
       <c r="AD11">
-        <v>1.222952949299004</v>
+        <v>1.2229529492990041</v>
       </c>
       <c r="AE11">
-        <v>0.6882368961769499</v>
+        <v>0.68823689617694994</v>
       </c>
       <c r="AF11">
         <v>1.274924801406297</v>
       </c>
       <c r="AG11">
-        <v>0.9571182910095233</v>
+        <v>0.95711829100952328</v>
       </c>
       <c r="AH11">
-        <v>0.6415068722101145</v>
+        <v>0.64150687221011449</v>
       </c>
       <c r="AI11">
-        <v>0.5456312851973271</v>
+        <v>0.54563128519732707</v>
       </c>
       <c r="AJ11">
-        <v>0.9641232692132982</v>
+        <v>0.96412326921329816</v>
       </c>
       <c r="AK11">
-        <v>0.9085785148657851</v>
+        <v>0.90857851486578511</v>
       </c>
       <c r="AL11">
-        <v>1.345764204790105</v>
+        <v>1.3457642047901051</v>
       </c>
       <c r="AM11">
         <v>0.4490271488549798</v>
       </c>
       <c r="AN11">
-        <v>0.8114477979437763</v>
+        <v>0.81144779794377631</v>
       </c>
       <c r="AO11">
         <v>0.9227045258368024</v>
       </c>
       <c r="AP11">
-        <v>1.290897091020056</v>
+        <v>1.2908970910200559</v>
       </c>
       <c r="AQ11">
-        <v>1.149454697710622</v>
+        <v>1.1494546977106219</v>
       </c>
       <c r="AR11">
-        <v>0.8784515138181533</v>
+        <v>0.87845151381815334</v>
       </c>
       <c r="AS11">
-        <v>1.137262083995673</v>
+        <v>1.1372620839956731</v>
       </c>
       <c r="AT11">
-        <v>0.4775540675910734</v>
+        <v>0.47755406759107338</v>
       </c>
       <c r="AU11">
-        <v>0.492064301637353</v>
+        <v>0.49206430163735299</v>
       </c>
       <c r="AV11">
-        <v>0.4738170298523124</v>
+        <v>0.47381702985231239</v>
       </c>
       <c r="AW11">
         <v>0.1953901563818852</v>
       </c>
       <c r="AX11">
-        <v>0.2206867876535704</v>
+        <v>0.22068678765357039</v>
       </c>
       <c r="AY11">
-        <v>0.4559584886233219</v>
+        <v>0.45595848862332189</v>
       </c>
       <c r="AZ11">
-        <v>0.8494012369202532</v>
+        <v>0.84940123692025316</v>
       </c>
       <c r="BA11">
         <v>1.014507405807249</v>
       </c>
       <c r="BB11">
-        <v>0.6338194422311964</v>
+        <v>0.63381944223119635</v>
       </c>
       <c r="BC11">
-        <v>0.902838738393308</v>
+        <v>0.90283873839330797</v>
       </c>
       <c r="BD11">
         <v>0.6284560014458912</v>
@@ -2335,7 +2610,7 @@
         <v>0.8721170096594707</v>
       </c>
       <c r="BG11">
-        <v>0.8317375201500921</v>
+        <v>0.83173752015009206</v>
       </c>
     </row>
   </sheetData>
